--- a/business_configuration.xlsx
+++ b/business_configuration.xlsx
@@ -43,6 +43,105 @@
     <t>CUSTOMERADDRESS1</t>
   </si>
   <si>
+    <t>INTERNATIONAL_OUTWARD_TXN_SENDER.csv</t>
+  </si>
+  <si>
+    <t>CounterPartyFirstName</t>
+  </si>
+  <si>
+    <t>CounterPartyLastName</t>
+  </si>
+  <si>
+    <t>CounterPartyAddress1</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL_TXN.csv</t>
+  </si>
+  <si>
+    <t>NameOfCorrespondentBank</t>
+  </si>
+  <si>
+    <t>CorrespondentBankAddress1</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL_INWARD_TXN_BENE.csv</t>
+  </si>
+  <si>
+    <t>BeneficiaryFirstName</t>
+  </si>
+  <si>
+    <t>BeneficiaryLastName</t>
+  </si>
+  <si>
+    <t>BeneficiaryAddress1</t>
+  </si>
+  <si>
+    <t>BeneficiaryBirthDate</t>
+  </si>
+  <si>
+    <t>CORPORATE_TXN_BENE.csv</t>
+  </si>
+  <si>
+    <t>BENEFICIARYFIRSTNAME</t>
+  </si>
+  <si>
+    <t>BENEFICIARYLASTNAME</t>
+  </si>
+  <si>
+    <t>BENEFICIARYADDRESS1</t>
+  </si>
+  <si>
+    <t>BENEFICIARYBIRTHDATE</t>
+  </si>
+  <si>
+    <t>CORPORATE_TXN_SENDER.csv</t>
+  </si>
+  <si>
+    <t>COUNTERPARTYFIRSTNAME</t>
+  </si>
+  <si>
+    <t>COUNTERPARTYLASTNAME</t>
+  </si>
+  <si>
+    <t>COUNTERPARTYADDRESS1</t>
+  </si>
+  <si>
+    <t>NAMEOFCORRESPONDENTBANK</t>
+  </si>
+  <si>
+    <t>CORRESPONDENTBANKADDRESS1</t>
+  </si>
+  <si>
+    <t>TO_BANK_OUTWARD_TXN_SENDER.csv</t>
+  </si>
+  <si>
+    <t>TO_BANK_OUTWARD_TXN_BENE.csv</t>
+  </si>
+  <si>
+    <t>MC_BOUGHT_FROM_CUSTOMER.csv</t>
+  </si>
+  <si>
+    <t>CustomerFirstName</t>
+  </si>
+  <si>
+    <t>CustomerLastName</t>
+  </si>
+  <si>
+    <t>CustomerAddress1</t>
+  </si>
+  <si>
+    <t>DEDUP_DOMESTIC_INWARD.csv</t>
+  </si>
+  <si>
+    <t>SENDERFIRSTNAME</t>
+  </si>
+  <si>
+    <t>SENDERLASTNAME</t>
+  </si>
+  <si>
+    <t>SENDERADDRESS1</t>
+  </si>
+  <si>
     <t>DEDUP_DOMESTIC_OUTWARD.csv</t>
   </si>
   <si>
@@ -53,105 +152,6 @@
   </si>
   <si>
     <t>RECEIVERADDRESS1</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL_OUTWARD_TXN_SENDER.csv</t>
-  </si>
-  <si>
-    <t>CounterPartyFirstName</t>
-  </si>
-  <si>
-    <t>CounterPartyLastName</t>
-  </si>
-  <si>
-    <t>CounterPartyAddress1</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL_TXN.csv</t>
-  </si>
-  <si>
-    <t>NameOfCorrespondentBank</t>
-  </si>
-  <si>
-    <t>CorrespondentBankAddress1</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL_INWARD_TXN_BENE.csv</t>
-  </si>
-  <si>
-    <t>BeneficiaryFirstName</t>
-  </si>
-  <si>
-    <t>BeneficiaryLastName</t>
-  </si>
-  <si>
-    <t>BeneficiaryAddress1</t>
-  </si>
-  <si>
-    <t>BeneficiaryBirthDate</t>
-  </si>
-  <si>
-    <t>CORPORATE_TXN_BENE.csv</t>
-  </si>
-  <si>
-    <t>BENEFICIARYFIRSTNAME</t>
-  </si>
-  <si>
-    <t>BENEFICIARYLASTNAME</t>
-  </si>
-  <si>
-    <t>BENEFICIARYADDRESS1</t>
-  </si>
-  <si>
-    <t>BENEFICIARYBIRTHDATE</t>
-  </si>
-  <si>
-    <t>CORPORATE_TXN_SENDER.csv</t>
-  </si>
-  <si>
-    <t>COUNTERPARTYFIRSTNAME</t>
-  </si>
-  <si>
-    <t>COUNTERPARTYLASTNAME</t>
-  </si>
-  <si>
-    <t>COUNTERPARTYADDRESS1</t>
-  </si>
-  <si>
-    <t>NAMEOFCORRESPONDENTBANK</t>
-  </si>
-  <si>
-    <t>CORRESPONDENTBANKADDRESS1</t>
-  </si>
-  <si>
-    <t>TO_BANK_OUTWARD_TXN_SENDER.csv</t>
-  </si>
-  <si>
-    <t>TO_BANK_OUTWARD_TXN_BENE.csv</t>
-  </si>
-  <si>
-    <t>MC_BOUGHT_FROM_CUSTOMER.csv</t>
-  </si>
-  <si>
-    <t>CustomerFirstName</t>
-  </si>
-  <si>
-    <t>CustomerLastName</t>
-  </si>
-  <si>
-    <t>CustomerAddress1</t>
-  </si>
-  <si>
-    <t>DEDUP_DOMESTIC_INWARD.csv</t>
-  </si>
-  <si>
-    <t>SENDERFIRSTNAME</t>
-  </si>
-  <si>
-    <t>SENDERLASTNAME</t>
-  </si>
-  <si>
-    <t>SENDERADDRESS1</t>
   </si>
 </sst>
 </file>
@@ -358,13 +358,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,33 +856,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1416,10 +1413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1467,175 +1464,170 @@
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>24</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>29</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="6"/>
+      <c r="A9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="A10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>4</v>
-      </c>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="E13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/business_configuration.xlsx
+++ b/business_configuration.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>File Name</t>
   </si>
@@ -128,30 +128,6 @@
   </si>
   <si>
     <t>CustomerAddress1</t>
-  </si>
-  <si>
-    <t>DEDUP_DOMESTIC_INWARD.csv</t>
-  </si>
-  <si>
-    <t>SENDERFIRSTNAME</t>
-  </si>
-  <si>
-    <t>SENDERLASTNAME</t>
-  </si>
-  <si>
-    <t>SENDERADDRESS1</t>
-  </si>
-  <si>
-    <t>DEDUP_DOMESTIC_OUTWARD.csv</t>
-  </si>
-  <si>
-    <t>RECEIVERFIRSTNAME</t>
-  </si>
-  <si>
-    <t>RECEIVERLASTNAME</t>
-  </si>
-  <si>
-    <t>RECEIVERADDRESS1</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1392,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1600,33 +1576,17 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>41</v>
-      </c>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="A13" s="13"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
   </sheetData>
